--- a/工具/配置表/WeaponConfig.xlsx
+++ b/工具/配置表/WeaponConfig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView windowWidth="18045" windowHeight="4995"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -19,14 +19,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+            <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
           <t>0：剑</t>
@@ -38,108 +37,438 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>AssetPath</t>
+  </si>
+  <si>
+    <t>HitEffectName</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>资源路径</t>
+  </si>
+  <si>
+    <t>受击特效</t>
   </si>
   <si>
     <t>测试武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssetPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestWeapon</t>
+  </si>
+  <si>
+    <t>ef_hit01</t>
+  </si>
+  <si>
+    <t>拳套</t>
+  </si>
+  <si>
+    <t>Punch</t>
+  </si>
+  <si>
+    <t>小手枪</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t>小牙签</t>
   </si>
   <si>
     <t>Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,24 +476,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -213,7 +828,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +863,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,24 +1066,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5416666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,70 +1092,142 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/工具/配置表/WeaponConfig.xlsx
+++ b/工具/配置表/WeaponConfig.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -28,7 +28,7 @@
             <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
-          <t>0：剑</t>
+          <t>1：剑</t>
         </r>
       </text>
     </comment>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+  <si>
+    <t>AssetID</t>
   </si>
   <si>
     <t>Damage</t>
@@ -51,7 +48,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>AssetPath</t>
+    <t>AssetName</t>
   </si>
   <si>
     <t>HitEffectName</t>
@@ -63,7 +60,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>名称</t>
+    <t>资源ID</t>
   </si>
   <si>
     <t>伤害</t>
@@ -72,37 +69,25 @@
     <t>类型</t>
   </si>
   <si>
-    <t>资源路径</t>
+    <t>资源名称</t>
   </si>
   <si>
     <t>受击特效</t>
   </si>
   <si>
-    <t>测试武器</t>
-  </si>
-  <si>
     <t>TestWeapon</t>
   </si>
   <si>
     <t>ef_hit01</t>
   </si>
   <si>
-    <t>拳套</t>
+    <t>Sword</t>
   </si>
   <si>
     <t>Punch</t>
   </si>
   <si>
-    <t>小手枪</t>
-  </si>
-  <si>
     <t>Gun</t>
-  </si>
-  <si>
-    <t>小牙签</t>
-  </si>
-  <si>
-    <t>Sword</t>
   </si>
 </sst>
 </file>
@@ -111,9 +96,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -125,29 +110,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,40 +138,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,19 +153,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,7 +239,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,29 +247,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,43 +268,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,139 +424,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,32 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,8 +480,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,7 +490,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,26 +540,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,28 +565,28 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,115 +595,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,19 +1057,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="13.5416666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="13.5416666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,33 +1085,27 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1140,88 +1119,73 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
+      <c r="B5">
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5">
         <v>1</v>
       </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
+      <c r="B6">
+        <v>200</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
       <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
         <v>3</v>
       </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/工具/配置表/WeaponConfig.xlsx
+++ b/工具/配置表/WeaponConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18045" windowHeight="4995"/>
+    <workbookView windowWidth="14880" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,10 @@
             <rFont val="SimSun"/>
             <charset val="134"/>
           </rPr>
-          <t>1：剑</t>
+          <t>1：normal
+2：fired
+3：poison 
+4：friendSide</t>
         </r>
       </text>
     </comment>
@@ -45,7 +48,7 @@
     <t>Damage</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>DamageType</t>
   </si>
   <si>
     <t>AssetName</t>
@@ -66,7 +69,7 @@
     <t>伤害</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>伤害类型</t>
   </si>
   <si>
     <t>资源名称</t>
@@ -95,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,6 +112,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -117,14 +143,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +151,69 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,25 +227,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,78 +249,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,19 +271,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,163 +403,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,26 +465,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,31 +520,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,159 +556,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,11 +1063,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="13.5416666666667" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
@@ -1128,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1142,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1159,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1176,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>

--- a/工具/配置表/WeaponConfig.xlsx
+++ b/工具/配置表/WeaponConfig.xlsx
@@ -98,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -114,7 +114,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +145,60 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,6 +210,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -142,28 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -172,85 +226,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,97 +271,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,85 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,17 +465,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,30 +494,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +515,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,20 +533,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,145 +568,145 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,14 +1063,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="13.5416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
